--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A869B2DF-845D-443F-A653-57D462FA4BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C41C4-7351-4590-A3F0-DC5B90854DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Check if https://subhro2606.github.io/cv/ is working</t>
+    <t>Refer each time you create a new Website</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,9 +607,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -618,7 +616,9 @@
       <c r="B5" s="3">
         <v>44055</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3">
+        <v>44055</v>
+      </c>
       <c r="D5" s="4">
         <v>4.3750000000000004E-2</v>
       </c>
@@ -635,7 +635,9 @@
       <c r="B6" s="3">
         <v>44055</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3">
+        <v>44055</v>
+      </c>
       <c r="D6" s="4">
         <v>0.12152777777777778</v>
       </c>
@@ -652,7 +654,9 @@
       <c r="B7" s="3">
         <v>44056</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3">
+        <v>44056</v>
+      </c>
       <c r="D7" s="4">
         <v>0.1076388888888889</v>
       </c>
@@ -669,7 +673,9 @@
       <c r="B8" s="3">
         <v>44056</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3">
+        <v>44057</v>
+      </c>
       <c r="D8" s="4">
         <v>0.1076388888888889</v>
       </c>
@@ -686,7 +692,9 @@
       <c r="B9" s="3">
         <v>44056</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3">
+        <v>44057</v>
+      </c>
       <c r="D9" s="4">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -694,7 +702,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -703,7 +713,9 @@
       <c r="B10" s="3">
         <v>44057</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3">
+        <v>44062</v>
+      </c>
       <c r="D10" s="4">
         <v>0.10277777777777779</v>
       </c>
@@ -720,7 +732,9 @@
       <c r="B11" s="3">
         <v>44057</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3">
+        <v>44062</v>
+      </c>
       <c r="D11" s="4">
         <v>6.25E-2</v>
       </c>
@@ -737,7 +751,9 @@
       <c r="B12" s="3">
         <v>44057</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3">
+        <v>44062</v>
+      </c>
       <c r="D12" s="4">
         <v>3.9583333333333331E-2</v>
       </c>
@@ -754,7 +770,9 @@
       <c r="B13" s="3">
         <v>44057</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3">
+        <v>44062</v>
+      </c>
       <c r="D13" s="4">
         <v>1.3888888888888888E-2</v>
       </c>

--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C41C4-7351-4590-A3F0-DC5B90854DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4352C-4DFE-4356-95D6-29CFB539A633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,9 @@
       <c r="B14" s="3">
         <v>44061</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3">
+        <v>44063</v>
+      </c>
       <c r="D14" s="4">
         <v>6.5972222222222224E-2</v>
       </c>
@@ -806,7 +808,9 @@
       <c r="B15" s="3">
         <v>44061</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3">
+        <v>44063</v>
+      </c>
       <c r="D15" s="4">
         <v>3.6805555555555557E-2</v>
       </c>
@@ -823,7 +827,9 @@
       <c r="B16" s="3">
         <v>44061</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3">
+        <v>44063</v>
+      </c>
       <c r="D16" s="4">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -840,7 +846,9 @@
       <c r="B17" s="3">
         <v>44061</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3">
+        <v>44063</v>
+      </c>
       <c r="D17" s="4">
         <v>2.4305555555555556E-2</v>
       </c>
@@ -857,7 +865,9 @@
       <c r="B18" s="3">
         <v>44061</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3">
+        <v>44063</v>
+      </c>
       <c r="D18" s="4">
         <v>5.5555555555555558E-3</v>
       </c>
@@ -872,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4">
@@ -889,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4">
@@ -906,7 +916,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4">
@@ -923,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4">
@@ -940,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4">
@@ -957,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="4">
@@ -974,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4">
@@ -991,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4">
@@ -1008,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="4">
@@ -1025,7 +1035,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4">
@@ -1042,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4">
@@ -1059,7 +1069,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4">
@@ -1076,7 +1086,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>44064</v>
+        <v>44066</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4">
@@ -1093,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4">
@@ -1110,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4">
@@ -1127,7 +1137,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>44065</v>
+        <v>44068</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4">
@@ -1144,7 +1154,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>44066</v>
+        <v>44069</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="4">

--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA4352C-4DFE-4356-95D6-29CFB539A633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77D9C2-3C3C-410D-A447-CB994DD39C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +884,9 @@
       <c r="B19" s="3">
         <v>44063</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3">
+        <v>44064</v>
+      </c>
       <c r="D19" s="4">
         <v>2.7083333333333334E-2</v>
       </c>
@@ -901,7 +903,9 @@
       <c r="B20" s="3">
         <v>44063</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3">
+        <v>44064</v>
+      </c>
       <c r="D20" s="4">
         <v>5.1388888888888894E-2</v>
       </c>

--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F77D9C2-3C3C-410D-A447-CB994DD39C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB9591-E694-40D4-9831-30C0FDBFA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B23:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +922,9 @@
       <c r="B21" s="3">
         <v>44063</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3">
+        <v>44066</v>
+      </c>
       <c r="D21" s="4">
         <v>0.10625</v>
       </c>
@@ -939,7 +941,9 @@
       <c r="B22" s="3">
         <v>44064</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3">
+        <v>44066</v>
+      </c>
       <c r="D22" s="4">
         <v>5.9027777777777783E-2</v>
       </c>

--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB9591-E694-40D4-9831-30C0FDBFA3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1EDC8A-0022-48A5-A55A-F81295B3AC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Subject</t>
   </si>
@@ -157,13 +157,37 @@
   </si>
   <si>
     <t>Refer each time you create a new Website</t>
+  </si>
+  <si>
+    <t>Version 3.4 Used. Learn about async await and revisit this for latest version</t>
+  </si>
+  <si>
+    <t>https://tcsglobal.udemy.com/course/the-complete-nodejs-developer-course-2/</t>
+  </si>
+  <si>
+    <t>https://tcsglobal.udemy.com/course/nodejs-express-mongodb-bootcamp/</t>
+  </si>
+  <si>
+    <t>Async Call</t>
+  </si>
+  <si>
+    <t>https://tcsglobal.udemy.com/course/all-about-nodejs/</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QO4NXhWo_NM?list=PLRqwX-V7Uu6bKLPQvPRNNE65kBL62mVfx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +198,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,18 +248,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +887,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -858,7 +906,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -877,7 +925,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -896,7 +944,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -915,7 +963,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -934,7 +982,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -953,14 +1001,16 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>44064</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3">
+        <v>44066</v>
+      </c>
       <c r="D23" s="4">
         <v>8.9583333333333334E-2</v>
       </c>
@@ -970,14 +1020,16 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>44064</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3">
+        <v>44066</v>
+      </c>
       <c r="D24" s="4">
         <v>0.10972222222222222</v>
       </c>
@@ -987,14 +1039,16 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>44064</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3">
+        <v>44066</v>
+      </c>
       <c r="D25" s="4">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -1004,14 +1058,16 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>44064</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3">
+        <v>44066</v>
+      </c>
       <c r="D26" s="4">
         <v>2.5694444444444447E-2</v>
       </c>
@@ -1021,63 +1077,84 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>44065</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3">
+        <v>44067</v>
+      </c>
       <c r="D27" s="4">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>44065</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>44067</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44067</v>
+      </c>
       <c r="D28" s="4">
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4">
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4">
@@ -1089,12 +1166,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="4">
@@ -1106,12 +1183,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4">
@@ -1128,7 +1205,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4">
@@ -1145,7 +1222,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="4">
@@ -1174,7 +1251,21 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{ED0944FE-576C-4C91-8F7B-68285B25DBCE}"/>
+    <hyperlink ref="F27" r:id="rId2" xr:uid="{C3C78B5F-E068-4BBE-925E-9E0A01A8BFD6}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{F05D8DC6-3755-44E6-AB44-C4B427B76DCC}"/>
+    <hyperlink ref="F36" r:id="rId4" xr:uid="{54C199F0-A750-4735-9605-667B9B51B7F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
+++ b/Web Developement/The Complete 2020 Web Development Bootcamp/The Complete 2020 Web Development Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Learning Essentials\Web Developement\The Complete 2020 Web Development Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1EDC8A-0022-48A5-A55A-F81295B3AC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23899313-86CC-489E-B417-4FD64F6CF062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,9 @@
       <c r="B29" s="3">
         <v>44067</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3">
+        <v>44067</v>
+      </c>
       <c r="D29" s="4">
         <v>6.5277777777777782E-2</v>
       </c>
